--- a/espaniol.xlsx
+++ b/espaniol.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\books\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\books\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6211D6-4319-420D-BE04-E7C30DDA2E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11250"/>
+    <workbookView xWindow="28680" yWindow="270" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="140">
   <si>
     <t>Yo</t>
   </si>
@@ -398,31 +399,6 @@
     <t>estoy</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>INDICATIVO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> действие происходит обычно, регулярно, всегда (normalmente)</t>
-    </r>
-  </si>
-  <si>
     <t>ANDO</t>
   </si>
   <si>
@@ -447,12 +423,258 @@
   <si>
     <t>(сейчас) останавливаюсь</t>
   </si>
+  <si>
+    <t>estás</t>
+  </si>
+  <si>
+    <r>
+      <t>ANDOt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e</t>
+    </r>
+  </si>
+  <si>
+    <t>(сейчас) останавливаешься</t>
+  </si>
+  <si>
+    <t>(сейчас) останавливаешь</t>
+  </si>
+  <si>
+    <t>está</t>
+  </si>
+  <si>
+    <r>
+      <t>ANDOs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e</t>
+    </r>
+  </si>
+  <si>
+    <t>están</t>
+  </si>
+  <si>
+    <t>(сейчас) останавливают</t>
+  </si>
+  <si>
+    <t>(сейчас) останавливаються</t>
+  </si>
+  <si>
+    <t>estamos</t>
+  </si>
+  <si>
+    <t>ANDOnos</t>
+  </si>
+  <si>
+    <t>(сейчас) останавливаем</t>
+  </si>
+  <si>
+    <t>(сейчас) останавливает</t>
+  </si>
+  <si>
+    <t>(сейчас) останавливается</t>
+  </si>
+  <si>
+    <t>(сейчас) останавливаемся</t>
+  </si>
+  <si>
+    <t>estáis</t>
+  </si>
+  <si>
+    <t>ANDOs</t>
+  </si>
+  <si>
+    <t>(сейчас) останавливаете</t>
+  </si>
+  <si>
+    <t>(сейчас) останавливаетесь</t>
+  </si>
+  <si>
+    <t>IENDO</t>
+  </si>
+  <si>
+    <r>
+      <t>IENDO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>me</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>IENDOt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>IENDOs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e</t>
+    </r>
+  </si>
+  <si>
+    <t>IENDOnos</t>
+  </si>
+  <si>
+    <t>IENDOs</t>
+  </si>
+  <si>
+    <t>(сейчас) прячу</t>
+  </si>
+  <si>
+    <t>(сейчас) прячешь</t>
+  </si>
+  <si>
+    <t>(сейчас) прячешься</t>
+  </si>
+  <si>
+    <t>(сейчас) прячюсь</t>
+  </si>
+  <si>
+    <t>(сейчас) прячет</t>
+  </si>
+  <si>
+    <t>(сейчас) прячется</t>
+  </si>
+  <si>
+    <t>(сейчас) прячем</t>
+  </si>
+  <si>
+    <t>(сейчас) прячемся</t>
+  </si>
+  <si>
+    <t>(сейчас) прячете</t>
+  </si>
+  <si>
+    <t>(сейчас) прячетесь</t>
+  </si>
+  <si>
+    <t>(сейчас) прячатся</t>
+  </si>
+  <si>
+    <t>(сейчас) прячат</t>
+  </si>
+  <si>
+    <t>(сейчас) открываю</t>
+  </si>
+  <si>
+    <t>(сейчас) открываюсь</t>
+  </si>
+  <si>
+    <t>(сейчас) открываешь</t>
+  </si>
+  <si>
+    <t>(сейчас) открываешься</t>
+  </si>
+  <si>
+    <t>(сейчас)открывает</t>
+  </si>
+  <si>
+    <t>(сейчас) открывается</t>
+  </si>
+  <si>
+    <t>(сейчас) открываем</t>
+  </si>
+  <si>
+    <t>(сейчас) открываемся</t>
+  </si>
+  <si>
+    <t>(сейчас) открываете</t>
+  </si>
+  <si>
+    <t>(сейчас) открываетесь</t>
+  </si>
+  <si>
+    <t>(сейчас) открывают</t>
+  </si>
+  <si>
+    <t>(сейчас) открываются</t>
+  </si>
+  <si>
+    <t>действие происходит обычно, регулярно, всегда (normalmente)</t>
+  </si>
+  <si>
+    <t>INDICATIVO</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(ESTAR + Gerundio)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> действие совершается в определенный/данный момент времени</t>
+    </r>
+  </si>
+  <si>
+    <t>CONTINUO</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -475,6 +697,14 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202124"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -652,7 +882,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -661,41 +891,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -713,31 +938,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{B92A0C53-3F37-4827-956C-41C567347C9D}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1011,869 +1252,1805 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AL28"/>
   <sheetViews>
     <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="R4" sqref="R4:AL4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="5.140625" customWidth="1"/>
-    <col min="3" max="3" width="1.7109375" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" customWidth="1"/>
-    <col min="5" max="5" width="2.42578125" customWidth="1"/>
+    <col min="1" max="1" width="1.77734375" customWidth="1"/>
+    <col min="2" max="2" width="4.5546875" customWidth="1"/>
+    <col min="3" max="3" width="1.6640625" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" customWidth="1"/>
+    <col min="5" max="5" width="2.44140625" customWidth="1"/>
     <col min="6" max="6" width="2" customWidth="1"/>
-    <col min="7" max="7" width="4.42578125" customWidth="1"/>
+    <col min="7" max="7" width="3.88671875" customWidth="1"/>
     <col min="8" max="8" width="5" customWidth="1"/>
-    <col min="9" max="9" width="4.85546875" customWidth="1"/>
-    <col min="10" max="10" width="2.7109375" customWidth="1"/>
-    <col min="11" max="11" width="4.28515625" customWidth="1"/>
-    <col min="12" max="12" width="3.42578125" customWidth="1"/>
-    <col min="13" max="13" width="3.5703125" customWidth="1"/>
-    <col min="14" max="14" width="4.5703125" customWidth="1"/>
-    <col min="15" max="15" width="3.5703125" customWidth="1"/>
-    <col min="16" max="16" width="2.28515625" customWidth="1"/>
-    <col min="17" max="17" width="5.42578125" customWidth="1"/>
-    <col min="18" max="18" width="3.85546875" customWidth="1"/>
-    <col min="19" max="19" width="2.7109375" customWidth="1"/>
-    <col min="20" max="20" width="4.28515625" customWidth="1"/>
-    <col min="21" max="21" width="2.42578125" customWidth="1"/>
-    <col min="22" max="22" width="3.28515625" customWidth="1"/>
-    <col min="23" max="23" width="2.7109375" customWidth="1"/>
-    <col min="24" max="24" width="4.7109375" customWidth="1"/>
+    <col min="9" max="9" width="3.44140625" customWidth="1"/>
+    <col min="10" max="10" width="2.6640625" customWidth="1"/>
+    <col min="11" max="11" width="4" customWidth="1"/>
+    <col min="12" max="12" width="3.44140625" customWidth="1"/>
+    <col min="13" max="13" width="2.77734375" customWidth="1"/>
+    <col min="14" max="14" width="3.6640625" customWidth="1"/>
+    <col min="15" max="15" width="3" customWidth="1"/>
+    <col min="16" max="16" width="2.33203125" customWidth="1"/>
+    <col min="17" max="17" width="3.5546875" customWidth="1"/>
+    <col min="18" max="18" width="3.88671875" customWidth="1"/>
+    <col min="19" max="19" width="2.6640625" customWidth="1"/>
+    <col min="20" max="20" width="4.88671875" customWidth="1"/>
+    <col min="21" max="21" width="2.44140625" customWidth="1"/>
+    <col min="22" max="22" width="4.109375" customWidth="1"/>
+    <col min="23" max="23" width="2.6640625" customWidth="1"/>
+    <col min="24" max="24" width="4.6640625" customWidth="1"/>
+    <col min="25" max="25" width="4.109375" customWidth="1"/>
+    <col min="26" max="26" width="3.5546875" customWidth="1"/>
+    <col min="27" max="27" width="3.33203125" customWidth="1"/>
+    <col min="28" max="28" width="2.5546875" customWidth="1"/>
+    <col min="29" max="29" width="4.44140625" customWidth="1"/>
+    <col min="30" max="30" width="3.77734375" customWidth="1"/>
+    <col min="31" max="31" width="4.88671875" customWidth="1"/>
+    <col min="32" max="32" width="4" customWidth="1"/>
+    <col min="33" max="33" width="2.6640625" customWidth="1"/>
+    <col min="34" max="34" width="3.33203125" customWidth="1"/>
+    <col min="35" max="35" width="2.21875" customWidth="1"/>
+    <col min="36" max="36" width="3" customWidth="1"/>
+    <col min="37" max="37" width="2.44140625" customWidth="1"/>
+    <col min="38" max="38" width="4.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C1" s="4" t="s">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="C1" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30"/>
+      <c r="AF1" s="30"/>
+      <c r="AG1" s="30"/>
+      <c r="AH1" s="30"/>
+      <c r="AI1" s="30"/>
+      <c r="AJ1" s="30"/>
+      <c r="AK1" s="30"/>
+      <c r="AL1" s="31"/>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="C2" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="4" t="s">
+      <c r="D2" s="23"/>
+      <c r="E2" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="7" t="s">
+      <c r="F2" s="22"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7" t="s">
+      <c r="I2" s="27"/>
+      <c r="J2" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7" t="s">
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7" t="s">
+      <c r="N2" s="27"/>
+      <c r="O2" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="4" t="s">
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="6"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="19" t="s">
+      <c r="S2" s="22"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="21"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC2" s="19"/>
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG2" s="22"/>
+      <c r="AH2" s="23"/>
+      <c r="AI2" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ2" s="19"/>
+      <c r="AK2" s="19"/>
+      <c r="AL2" s="20"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C2" s="4" t="s">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="C3" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="4" t="s">
+      <c r="D3" s="23"/>
+      <c r="E3" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="7" t="s">
+      <c r="F3" s="22"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7" t="s">
+      <c r="I3" s="27"/>
+      <c r="J3" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7" t="s">
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7" t="s">
+      <c r="N3" s="27"/>
+      <c r="O3" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="4" t="s">
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="S2" s="6"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="19" t="s">
+      <c r="S3" s="22"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="21"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="19"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z3" s="22"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC3" s="19"/>
+      <c r="AD3" s="19"/>
+      <c r="AE3" s="20"/>
+      <c r="AF3" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG3" s="22"/>
+      <c r="AH3" s="23"/>
+      <c r="AI3" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ3" s="19"/>
+      <c r="AK3" s="19"/>
+      <c r="AL3" s="20"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C3" s="4" t="s">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="C4" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="19"/>
+      <c r="X4" s="19"/>
+      <c r="Y4" s="19"/>
+      <c r="Z4" s="19"/>
+      <c r="AA4" s="19"/>
+      <c r="AB4" s="19"/>
+      <c r="AC4" s="19"/>
+      <c r="AD4" s="19"/>
+      <c r="AE4" s="19"/>
+      <c r="AF4" s="19"/>
+      <c r="AG4" s="19"/>
+      <c r="AH4" s="19"/>
+      <c r="AI4" s="19"/>
+      <c r="AJ4" s="19"/>
+      <c r="AK4" s="19"/>
+      <c r="AL4" s="19"/>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="T5" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="5"/>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="U5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="T4" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="V4" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="X4" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
-      <c r="B5" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5" s="14"/>
-      <c r="J5" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="K5" s="17"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="N5" s="14"/>
-      <c r="O5" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="S5" s="17"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="12" t="s">
+      <c r="V5" s="5" t="s">
         <v>82</v>
       </c>
       <c r="W5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="X5" s="8" t="s">
+      <c r="X5" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA5" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC5" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE5" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH5" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ5" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL5" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A6" s="8"/>
+      <c r="B6" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="16"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="12"/>
+      <c r="J6" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="16"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="N6" s="12"/>
+      <c r="O6" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="S6" s="16"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="X6" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y6" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z6" s="16"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE6" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF6" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG6" s="16"/>
+      <c r="AH6" s="12"/>
+      <c r="AI6" s="2"/>
+      <c r="AJ6" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL6" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A7" s="8"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="24" t="s">
         <v>86</v>
       </c>
+      <c r="V7" s="25"/>
+      <c r="W7" s="25"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="13"/>
+      <c r="AB7" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC7" s="25"/>
+      <c r="AD7" s="25"/>
+      <c r="AE7" s="26"/>
+      <c r="AF7" s="15"/>
+      <c r="AG7" s="17"/>
+      <c r="AH7" s="13"/>
+      <c r="AI7" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="AJ7" s="25"/>
+      <c r="AK7" s="25"/>
+      <c r="AL7" s="26"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="9" t="s">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A8" s="8"/>
+      <c r="B8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="R8" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="10"/>
+      <c r="S8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="V8" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="X8" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y8" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA8" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC8" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE8" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF8" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH8" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ8" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL8" s="4" t="s">
+        <v>106</v>
+      </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
-      <c r="B7" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1" t="s">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A9" s="8"/>
+      <c r="B9" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="16"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="12"/>
+      <c r="J9" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="K9" s="16"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="N9" s="12"/>
+      <c r="O9" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="S9" s="16"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="W9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="X9" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y9" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z9" s="16"/>
+      <c r="AA9" s="12"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE9" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF9" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="AG9" s="16"/>
+      <c r="AH9" s="12"/>
+      <c r="AI9" s="2"/>
+      <c r="AJ9" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL9" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A10" s="8"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="V10" s="25"/>
+      <c r="W10" s="25"/>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="17"/>
+      <c r="AA10" s="13"/>
+      <c r="AB10" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC10" s="25"/>
+      <c r="AD10" s="25"/>
+      <c r="AE10" s="26"/>
+      <c r="AF10" s="15"/>
+      <c r="AG10" s="17"/>
+      <c r="AH10" s="13"/>
+      <c r="AI10" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ10" s="25"/>
+      <c r="AK10" s="25"/>
+      <c r="AL10" s="26"/>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A11" s="8"/>
+      <c r="B11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="1" t="s">
+      <c r="D11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" s="3" t="s">
+      <c r="I11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="M7" s="1" t="s">
+      <c r="L11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P7" s="3" t="s">
+      <c r="N11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Q7" s="8" t="s">
-        <v>23</v>
+      <c r="Q11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="T11" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="V11" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="W11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="X11" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y11" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA11" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC11" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE11" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF11" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH11" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ11" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL11" s="4" t="s">
+        <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="26"/>
-      <c r="B8" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="17"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" s="14"/>
-      <c r="J8" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="K8" s="17"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="N8" s="14"/>
-      <c r="O8" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="14"/>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A12" s="8"/>
+      <c r="B12" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" s="12"/>
+      <c r="J12" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="K12" s="16"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="N12" s="12"/>
+      <c r="O12" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="S12" s="16"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="X12" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y12" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z12" s="16"/>
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE12" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF12" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="AG12" s="16"/>
+      <c r="AH12" s="12"/>
+      <c r="AI12" s="2"/>
+      <c r="AJ12" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL12" s="4" t="s">
+        <v>109</v>
+      </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="16"/>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A13" s="8"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="V13" s="25"/>
+      <c r="W13" s="25"/>
+      <c r="X13" s="26"/>
+      <c r="Y13" s="15"/>
+      <c r="Z13" s="17"/>
+      <c r="AA13" s="13"/>
+      <c r="AB13" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC13" s="25"/>
+      <c r="AD13" s="25"/>
+      <c r="AE13" s="26"/>
+      <c r="AF13" s="15"/>
+      <c r="AG13" s="17"/>
+      <c r="AH13" s="13"/>
+      <c r="AI13" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ13" s="25"/>
+      <c r="AK13" s="25"/>
+      <c r="AL13" s="26"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="26"/>
-      <c r="B10" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="1" t="s">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A14" s="8"/>
+      <c r="B14" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="D14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="T14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="U14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="V14" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="X14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y14" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA14" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC14" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE14" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF14" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH14" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ14" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL14" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A15" s="8"/>
+      <c r="B15" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="16"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="I15" s="12"/>
+      <c r="J15" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="K15" s="16"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="N15" s="12"/>
+      <c r="O15" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="S15" s="16"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="X15" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y15" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z15" s="16"/>
+      <c r="AA15" s="12"/>
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE15" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF15" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG15" s="16"/>
+      <c r="AH15" s="12"/>
+      <c r="AI15" s="2"/>
+      <c r="AJ15" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL15" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A16" s="8"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="V16" s="25"/>
+      <c r="W16" s="25"/>
+      <c r="X16" s="26"/>
+      <c r="Y16" s="15"/>
+      <c r="Z16" s="17"/>
+      <c r="AA16" s="13"/>
+      <c r="AB16" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC16" s="25"/>
+      <c r="AD16" s="25"/>
+      <c r="AE16" s="26"/>
+      <c r="AF16" s="15"/>
+      <c r="AG16" s="17"/>
+      <c r="AH16" s="13"/>
+      <c r="AI16" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="AJ16" s="25"/>
+      <c r="AK16" s="25"/>
+      <c r="AL16" s="26"/>
+    </row>
+    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A17" s="8"/>
+      <c r="B17" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="T17" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="U17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="V17" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="W17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="X17" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y17" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA17" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC17" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE17" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF17" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH17" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ17" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL17" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A18" s="8"/>
+      <c r="B18" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="12"/>
+      <c r="E18" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="16"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="I18" s="12"/>
+      <c r="J18" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="K18" s="16"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="N18" s="12"/>
+      <c r="O18" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="S18" s="16"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="W18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="X18" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y18" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z18" s="16"/>
+      <c r="AA18" s="12"/>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE18" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF18" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="AG18" s="16"/>
+      <c r="AH18" s="12"/>
+      <c r="AI18" s="2"/>
+      <c r="AJ18" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL18" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A19" s="8"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="V19" s="25"/>
+      <c r="W19" s="25"/>
+      <c r="X19" s="26"/>
+      <c r="Y19" s="15"/>
+      <c r="Z19" s="17"/>
+      <c r="AA19" s="13"/>
+      <c r="AB19" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC19" s="25"/>
+      <c r="AD19" s="25"/>
+      <c r="AE19" s="26"/>
+      <c r="AF19" s="15"/>
+      <c r="AG19" s="17"/>
+      <c r="AH19" s="13"/>
+      <c r="AI19" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="AJ19" s="25"/>
+      <c r="AK19" s="25"/>
+      <c r="AL19" s="26"/>
+    </row>
+    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A20" s="8"/>
+      <c r="B20" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F20" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="1" t="s">
+      <c r="G20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" s="2" t="s">
+      <c r="I20" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K20" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L10" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="M10" s="1" t="s">
+      <c r="L20" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N10" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="O10" s="2" t="s">
+      <c r="N20" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P10" s="3" t="s">
+      <c r="P20" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Q10" s="8" t="s">
-        <v>24</v>
+      <c r="Q20" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="T20" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="U20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="V20" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="X20" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y20" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA20" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC20" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE20" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF20" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH20" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ20" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="AK20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL20" s="4" t="s">
+        <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="26"/>
-      <c r="B11" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="I11" s="14"/>
-      <c r="J11" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="K11" s="17"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="N11" s="14"/>
-      <c r="O11" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="14"/>
+    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A21" s="8"/>
+      <c r="B21" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="S21" s="16"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="X21" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y21" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z21" s="16"/>
+      <c r="AA21" s="12"/>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE21" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF21" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG21" s="16"/>
+      <c r="AH21" s="12"/>
+      <c r="AI21" s="2"/>
+      <c r="AJ21" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="AK21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL21" s="4" t="s">
+        <v>109</v>
+      </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="26"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="16"/>
+    <row r="22" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A22" s="9"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="17"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="V22" s="25"/>
+      <c r="W22" s="25"/>
+      <c r="X22" s="26"/>
+      <c r="Y22" s="15"/>
+      <c r="Z22" s="17"/>
+      <c r="AA22" s="13"/>
+      <c r="AB22" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC22" s="25"/>
+      <c r="AD22" s="25"/>
+      <c r="AE22" s="26"/>
+      <c r="AF22" s="15"/>
+      <c r="AG22" s="17"/>
+      <c r="AH22" s="13"/>
+      <c r="AI22" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="AJ22" s="25"/>
+      <c r="AK22" s="25"/>
+      <c r="AL22" s="26"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13" s="26"/>
-      <c r="B13" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N13" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q13" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="26"/>
-      <c r="B14" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="I14" s="14"/>
-      <c r="J14" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="K14" s="17"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="N14" s="14"/>
-      <c r="O14" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="14"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="26"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="16"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="26"/>
-      <c r="B16" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L16" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N16" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="P16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q16" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="26"/>
-      <c r="B17" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F17" s="17"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="I17" s="14"/>
-      <c r="J17" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="K17" s="17"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="N17" s="14"/>
-      <c r="O17" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="14"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="26"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="16"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="26"/>
-      <c r="B19" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L19" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N19" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="P19" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q19" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="26"/>
-      <c r="B20" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="22"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="27"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
+    <row r="28" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="Q28" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
-    <mergeCell ref="A4:A21"/>
-    <mergeCell ref="M20:N21"/>
-    <mergeCell ref="O20:Q21"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="M14:N15"/>
-    <mergeCell ref="O14:Q15"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="E17:G18"/>
-    <mergeCell ref="H17:I18"/>
-    <mergeCell ref="J17:L18"/>
-    <mergeCell ref="M17:N18"/>
-    <mergeCell ref="O17:Q18"/>
-    <mergeCell ref="U2:X2"/>
-    <mergeCell ref="U1:X1"/>
-    <mergeCell ref="R5:T6"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="E8:G9"/>
-    <mergeCell ref="H8:I9"/>
-    <mergeCell ref="J8:L9"/>
-    <mergeCell ref="M8:N9"/>
-    <mergeCell ref="O8:Q9"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U6:X6"/>
-    <mergeCell ref="C5:D6"/>
-    <mergeCell ref="E5:G6"/>
-    <mergeCell ref="H5:I6"/>
-    <mergeCell ref="J5:L6"/>
-    <mergeCell ref="M5:N6"/>
-    <mergeCell ref="O5:Q6"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E11:G12"/>
-    <mergeCell ref="H11:I12"/>
-    <mergeCell ref="J11:L12"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:G21"/>
-    <mergeCell ref="H20:I21"/>
-    <mergeCell ref="J20:L21"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:G15"/>
-    <mergeCell ref="H14:I15"/>
-    <mergeCell ref="J14:L15"/>
-    <mergeCell ref="M11:N12"/>
-    <mergeCell ref="O11:Q12"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:Q1"/>
+  <mergeCells count="107">
+    <mergeCell ref="C1:Q1"/>
+    <mergeCell ref="R1:AL1"/>
+    <mergeCell ref="AI19:AL19"/>
+    <mergeCell ref="AF21:AH22"/>
+    <mergeCell ref="AI22:AL22"/>
+    <mergeCell ref="R4:AL4"/>
+    <mergeCell ref="AI10:AL10"/>
+    <mergeCell ref="AF12:AH13"/>
+    <mergeCell ref="AI13:AL13"/>
+    <mergeCell ref="AF15:AH16"/>
+    <mergeCell ref="AI16:AL16"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="AF3:AH3"/>
+    <mergeCell ref="AI3:AL3"/>
+    <mergeCell ref="AF6:AH7"/>
+    <mergeCell ref="AI7:AL7"/>
+    <mergeCell ref="Y18:AA19"/>
+    <mergeCell ref="AB19:AE19"/>
+    <mergeCell ref="Y21:AA22"/>
+    <mergeCell ref="AB22:AE22"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="AF9:AH10"/>
+    <mergeCell ref="AF18:AH19"/>
+    <mergeCell ref="Y9:AA10"/>
+    <mergeCell ref="AB10:AE10"/>
+    <mergeCell ref="Y12:AA13"/>
+    <mergeCell ref="AB13:AE13"/>
+    <mergeCell ref="Y15:AA16"/>
+    <mergeCell ref="AB16:AE16"/>
+    <mergeCell ref="Y2:AA2"/>
+    <mergeCell ref="AB2:AE2"/>
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="AB3:AE3"/>
+    <mergeCell ref="Y6:AA7"/>
+    <mergeCell ref="AB7:AE7"/>
+    <mergeCell ref="R9:T10"/>
+    <mergeCell ref="U10:X10"/>
+    <mergeCell ref="R12:T13"/>
+    <mergeCell ref="U13:X13"/>
+    <mergeCell ref="R21:T22"/>
+    <mergeCell ref="U22:X22"/>
+    <mergeCell ref="R15:T16"/>
+    <mergeCell ref="U16:X16"/>
+    <mergeCell ref="R18:T19"/>
+    <mergeCell ref="U19:X19"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:G3"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:G2"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:L1"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:L2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="E21:G22"/>
+    <mergeCell ref="H21:I22"/>
+    <mergeCell ref="J21:L22"/>
+    <mergeCell ref="C15:D16"/>
+    <mergeCell ref="E15:G16"/>
+    <mergeCell ref="H15:I16"/>
+    <mergeCell ref="J15:L16"/>
+    <mergeCell ref="J6:L7"/>
+    <mergeCell ref="M6:N7"/>
+    <mergeCell ref="O6:Q7"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:G13"/>
+    <mergeCell ref="H12:I13"/>
+    <mergeCell ref="J12:L13"/>
+    <mergeCell ref="M12:N13"/>
+    <mergeCell ref="O12:Q13"/>
+    <mergeCell ref="O18:Q19"/>
+    <mergeCell ref="U3:X3"/>
+    <mergeCell ref="U2:X2"/>
+    <mergeCell ref="R6:T7"/>
+    <mergeCell ref="C9:D10"/>
+    <mergeCell ref="E9:G10"/>
+    <mergeCell ref="H9:I10"/>
+    <mergeCell ref="J9:L10"/>
+    <mergeCell ref="M9:N10"/>
+    <mergeCell ref="O9:Q10"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U7:X7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:G7"/>
+    <mergeCell ref="H6:I7"/>
+    <mergeCell ref="A5:A22"/>
+    <mergeCell ref="M21:N22"/>
+    <mergeCell ref="O21:Q22"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="M15:N16"/>
+    <mergeCell ref="O15:Q16"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:G19"/>
+    <mergeCell ref="H18:I19"/>
+    <mergeCell ref="J18:L19"/>
+    <mergeCell ref="M18:N19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
